--- a/Atalhos/5.xlsx
+++ b/Atalhos/5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10-2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Atalhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -238,7 +238,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -521,94 +530,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
 </worksheet>
 </file>